--- a/states_legislation.xlsx
+++ b/states_legislation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/Projects/AV Outlook/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/Projects/AV Outlook US/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E54E976-C208-0246-8A71-B46DF26475A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D8A35-D3F9-EB46-AA6D-B0B728F327E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="500" windowWidth="28040" windowHeight="14280" activeTab="2" xr2:uid="{7346EA15-A40E-4B4B-AD79-15BFDEA071D0}"/>
   </bookViews>
@@ -1265,7 +1265,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
